--- a/fhir/core/StructureDefinition-dk-core-organization.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-organization.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:11:32+02:00</t>
+    <t>2023-05-04T21:41:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-organization.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:41:07+02:00</t>
+    <t>2023-05-05T01:43:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-organization.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="387">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T01:43:00+02:00</t>
+    <t>2023-12-01T14:04:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}dk-core-organization-mandatory-identifier:Minimum one identifier shall be of type SOR-ID, KOMBIT-ORG-ID or CVR-ID {identifier.where(system='urn:oid:1.2.208.176.1.1' or system='https://kombit.dk/sts/organisation' or system='urn:oid:2.16.840.1.113883.2.24.1.1').exists()}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -1335,10 +1339,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1787,13 +1791,13 @@
         <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>30</v>
@@ -1804,10 +1808,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1818,7 +1822,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -1827,19 +1831,19 @@
         <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1889,13 +1893,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1918,10 +1922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1932,7 +1936,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>77</v>
@@ -1941,16 +1945,16 @@
         <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2001,19 +2005,19 @@
         <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -2030,10 +2034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2044,28 +2048,28 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2115,19 +2119,19 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
@@ -2144,10 +2148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2158,7 +2162,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -2170,16 +2174,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2205,13 +2209,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -2229,19 +2233,19 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
@@ -2258,21 +2262,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -2284,16 +2288,16 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2343,25 +2347,25 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -2372,14 +2376,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2398,16 +2402,16 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2457,7 +2461,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -2475,7 +2479,7 @@
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -2486,14 +2490,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2512,16 +2516,16 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2571,7 +2575,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2583,13 +2587,13 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2600,14 +2604,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2620,25 +2624,25 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2687,7 +2691,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2699,13 +2703,13 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2716,10 +2720,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2727,7 +2731,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -2739,20 +2743,20 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2789,17 +2793,17 @@
         <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2808,33 +2812,33 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
@@ -2844,7 +2848,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2856,17 +2860,17 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2915,7 +2919,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2924,19 +2928,19 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2944,13 +2948,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2960,7 +2964,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2972,17 +2976,17 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3031,7 +3035,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3040,19 +3044,19 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3060,13 +3064,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
@@ -3076,7 +3080,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3088,17 +3092,17 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3147,7 +3151,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3156,19 +3160,19 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3176,13 +3180,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3192,7 +3196,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3201,20 +3205,20 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3263,7 +3267,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3272,30 +3276,30 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3306,7 +3310,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3318,13 +3322,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3375,13 +3379,13 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
@@ -3393,7 +3397,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3404,14 +3408,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3430,16 +3434,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3477,19 +3481,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3501,13 +3505,13 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3518,10 +3522,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3532,31 +3536,31 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3581,13 +3585,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3605,25 +3609,25 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3634,10 +3638,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3648,7 +3652,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3657,22 +3661,22 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3697,13 +3701,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3721,25 +3725,25 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3750,10 +3754,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3761,10 +3765,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3773,35 +3777,35 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>77</v>
@@ -3837,28 +3841,28 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3866,10 +3870,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3877,10 +3881,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3889,19 +3893,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3915,7 +3919,7 @@
         <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>77</v>
@@ -3951,28 +3955,28 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3980,10 +3984,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3994,7 +3998,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4003,16 +4007,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4063,28 +4067,28 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4092,10 +4096,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4106,7 +4110,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4115,19 +4119,19 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4177,28 +4181,28 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4206,13 +4210,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>77</v>
@@ -4222,7 +4226,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4234,17 +4238,17 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4293,7 +4297,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4302,19 +4306,19 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4322,13 +4326,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4338,7 +4342,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4347,20 +4351,20 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4409,7 +4413,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4418,30 +4422,30 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4452,7 +4456,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4464,13 +4468,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4521,13 +4525,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4539,7 +4543,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4550,14 +4554,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4576,16 +4580,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4623,19 +4627,19 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4647,13 +4651,13 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4664,10 +4668,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4678,31 +4682,31 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4727,13 +4731,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4751,25 +4755,25 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4780,10 +4784,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4794,7 +4798,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4803,22 +4807,22 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4843,13 +4847,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4867,25 +4871,25 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4896,10 +4900,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4907,10 +4911,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4919,35 +4923,35 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>77</v>
@@ -4983,28 +4987,28 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5012,10 +5016,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5023,10 +5027,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5035,19 +5039,19 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5061,7 +5065,7 @@
         <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>77</v>
@@ -5073,11 +5077,11 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5095,28 +5099,28 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5124,10 +5128,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5138,7 +5142,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5147,16 +5151,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5207,28 +5211,28 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5236,10 +5240,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5250,7 +5254,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5259,19 +5263,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5321,28 +5325,28 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5350,13 +5354,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
@@ -5366,7 +5370,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5375,20 +5379,20 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5437,7 +5441,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5446,30 +5450,30 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5480,7 +5484,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5492,13 +5496,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5549,13 +5553,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5567,7 +5571,7 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5578,14 +5582,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5604,16 +5608,16 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5651,19 +5655,19 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5675,13 +5679,13 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5692,10 +5696,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5706,31 +5710,31 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5755,13 +5759,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5779,25 +5783,25 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5808,10 +5812,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5822,7 +5826,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5831,22 +5835,22 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5871,13 +5875,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -5895,25 +5899,25 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5924,10 +5928,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5935,10 +5939,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5947,35 +5951,35 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6011,28 +6015,28 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6040,10 +6044,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6051,10 +6055,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6063,19 +6067,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6089,7 +6093,7 @@
         <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6125,28 +6129,28 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6154,10 +6158,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6168,7 +6172,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6177,16 +6181,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6237,28 +6241,28 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6266,10 +6270,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6280,7 +6284,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6289,19 +6293,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6351,28 +6355,28 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6380,10 +6384,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6394,114 +6398,114 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6521,22 +6525,22 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6561,11 +6565,11 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6583,7 +6587,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6595,27 +6599,27 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6626,7 +6630,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6635,22 +6639,22 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6699,28 +6703,28 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6728,10 +6732,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6754,19 +6758,19 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6815,7 +6819,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6827,13 +6831,13 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6844,10 +6848,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6870,19 +6874,19 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6931,7 +6935,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6940,19 +6944,19 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -6960,10 +6964,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6986,19 +6990,19 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7047,7 +7051,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7056,19 +7060,19 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7076,10 +7080,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7090,7 +7094,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7099,20 +7103,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7161,28 +7165,28 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7190,10 +7194,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7216,19 +7220,19 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7277,7 +7281,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7289,13 +7293,13 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7306,10 +7310,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7320,7 +7324,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7332,13 +7336,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7389,13 +7393,13 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7407,7 +7411,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7418,14 +7422,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7444,16 +7448,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7503,7 +7507,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7515,13 +7519,13 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7532,14 +7536,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7552,25 +7556,25 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7619,7 +7623,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7631,13 +7635,13 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7648,10 +7652,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7662,7 +7666,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7674,17 +7678,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7709,13 +7713,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7733,25 +7737,25 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7762,10 +7766,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7776,7 +7780,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7788,17 +7792,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7847,25 +7851,25 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7876,10 +7880,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7902,17 +7906,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7961,7 +7965,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7973,13 +7977,13 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7990,10 +7994,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8004,7 +8008,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8016,17 +8020,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8075,25 +8079,25 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8104,10 +8108,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8130,17 +8134,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8189,7 +8193,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8201,13 +8205,13 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>

--- a/fhir/core/StructureDefinition-dk-core-organization.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-01T14:04:08+01:00</t>
+    <t>2024-01-08T21:51:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-organization.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="391">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -887,6 +887,19 @@
   </si>
   <si>
     <t>Organization.identifier:Regionskode.assigner</t>
+  </si>
+  <si>
+    <t>Organization.identifier:ProducentID</t>
+  </si>
+  <si>
+    <t>ProducentID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://hl7.dk/fhir/core/StructureDefinition/dk-core-producent-id}
+</t>
+  </si>
+  <si>
+    <t>[DA] Producent Id</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -1522,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6387,9 +6400,11 @@
         <v>282</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6404,32 +6419,28 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>287</v>
+        <v>148</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q43" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6473,39 +6484,39 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>289</v>
+        <v>162</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>290</v>
+        <v>163</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6516,36 +6527,38 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="R44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6565,11 +6578,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6587,13 +6602,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6602,24 +6617,24 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6630,7 +6645,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6642,19 +6657,19 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6679,13 +6694,11 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6703,39 +6716,39 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6746,7 +6759,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6755,22 +6768,22 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6819,28 +6832,28 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6848,10 +6861,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6874,19 +6887,19 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6935,7 +6948,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6944,19 +6957,19 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -6964,10 +6977,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6990,19 +7003,19 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7051,7 +7064,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7060,19 +7073,19 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7080,10 +7093,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7094,7 +7107,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7103,20 +7116,22 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7165,28 +7180,28 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7194,10 +7209,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7208,7 +7223,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7217,22 +7232,20 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7281,13 +7294,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7296,13 +7309,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7310,10 +7323,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7324,7 +7337,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7336,16 +7349,20 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7393,25 +7410,25 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>181</v>
+        <v>346</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>182</v>
+        <v>352</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7422,21 +7439,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7448,17 +7465,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7507,19 +7522,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7536,14 +7551,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7556,26 +7571,24 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>134</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>354</v>
+        <v>185</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7623,7 +7636,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7641,7 +7654,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7652,33 +7665,33 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>357</v>
@@ -7686,9 +7699,11 @@
       <c r="M54" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>359</v>
+        <v>142</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7713,13 +7728,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7737,25 +7752,25 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7766,10 +7781,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7792,17 +7807,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>202</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7827,13 +7842,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7851,7 +7866,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7866,10 +7881,10 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7880,10 +7895,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7894,7 +7909,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7906,17 +7921,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7965,13 +7980,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -7980,10 +7995,10 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7994,10 +8009,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8008,7 +8023,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8020,17 +8035,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8079,13 +8094,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8094,10 +8109,10 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8108,10 +8123,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8122,7 +8137,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8134,17 +8149,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8193,13 +8208,13 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
@@ -8208,15 +8223,129 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/fhir/core/StructureDefinition-dk-core-organization.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-organization.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-organization.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/StructureDefinition-dk-core-organization.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="386">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -512,22 +512,6 @@
   </si>
   <si>
     <t>GLN identifier, [DA] EAN-nummer</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
   </si>
   <si>
     <t>Organization.identifier:SOR-ID</t>
@@ -1579,8 +1563,8 @@
     <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.68359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2870,7 +2854,7 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>158</v>
@@ -2879,7 +2863,7 @@
         <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2941,33 +2925,33 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>144</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2986,16 +2970,16 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3057,33 +3041,33 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>144</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
@@ -3102,16 +3086,16 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3173,33 +3157,33 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>144</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3224,7 +3208,7 @@
         <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>147</v>
@@ -3309,10 +3293,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3335,13 +3319,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3392,7 +3376,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3410,7 +3394,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3421,10 +3405,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3453,7 +3437,7 @@
         <v>134</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>136</v>
@@ -3494,10 +3478,10 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
@@ -3506,7 +3490,7 @@
         <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3524,7 +3508,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3535,10 +3519,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3564,16 +3548,16 @@
         <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3598,13 +3582,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3622,7 +3606,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3640,7 +3624,7 @@
         <v>130</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3651,10 +3635,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3677,19 +3661,19 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3714,13 +3698,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3738,7 +3722,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3753,10 +3737,10 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3767,10 +3751,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3796,29 +3780,29 @@
         <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>77</v>
@@ -3854,7 +3838,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3869,13 +3853,13 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3883,10 +3867,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3909,16 +3893,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3932,7 +3916,7 @@
         <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>77</v>
@@ -3968,7 +3952,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3983,13 +3967,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3997,10 +3981,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4023,13 +4007,13 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4080,7 +4064,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4095,13 +4079,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4109,10 +4093,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4135,16 +4119,16 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4194,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4209,13 +4193,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4223,13 +4207,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>144</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>77</v>
@@ -4248,16 +4232,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4319,33 +4303,33 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4370,7 +4354,7 @@
         <v>145</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>147</v>
@@ -4455,10 +4439,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4481,13 +4465,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4538,7 +4522,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4556,7 +4540,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4567,10 +4551,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4599,7 +4583,7 @@
         <v>134</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>136</v>
@@ -4640,10 +4624,10 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
@@ -4652,7 +4636,7 @@
         <v>150</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4670,7 +4654,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4681,10 +4665,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4710,16 +4694,16 @@
         <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4744,13 +4728,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4768,7 +4752,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4786,7 +4770,7 @@
         <v>130</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4797,10 +4781,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4823,19 +4807,19 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4860,13 +4844,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4884,7 +4868,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4899,10 +4883,10 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4913,10 +4897,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4942,29 +4926,29 @@
         <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>77</v>
@@ -5000,7 +4984,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5015,13 +4999,13 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5029,10 +5013,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5055,16 +5039,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5078,7 +5062,7 @@
         <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>77</v>
@@ -5090,11 +5074,11 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5112,7 +5096,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5127,13 +5111,13 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5141,10 +5125,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5167,13 +5151,13 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5224,7 +5208,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5239,13 +5223,13 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5253,10 +5237,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5279,16 +5263,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5338,7 +5322,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5353,13 +5337,13 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5367,13 +5351,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>144</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>77</v>
@@ -5398,7 +5382,7 @@
         <v>145</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>147</v>
@@ -5483,10 +5467,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5509,13 +5493,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5566,7 +5550,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5584,7 +5568,7 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5595,10 +5579,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5627,7 +5611,7 @@
         <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>136</v>
@@ -5668,10 +5652,10 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
@@ -5680,7 +5664,7 @@
         <v>150</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5698,7 +5682,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5709,10 +5693,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5738,16 +5722,16 @@
         <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5772,13 +5756,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5796,7 +5780,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5814,7 +5798,7 @@
         <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5825,10 +5809,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5851,19 +5835,19 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5888,13 +5872,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -5912,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5927,10 +5911,10 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5941,10 +5925,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5970,29 +5954,29 @@
         <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>77</v>
@@ -6028,7 +6012,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6043,13 +6027,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6057,10 +6041,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6083,16 +6067,16 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6106,7 +6090,7 @@
         <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>77</v>
@@ -6142,7 +6126,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6157,13 +6141,13 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6171,10 +6155,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6197,13 +6181,13 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6254,7 +6238,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6269,13 +6253,13 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6283,10 +6267,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6309,16 +6293,16 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6368,7 +6352,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6383,13 +6367,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6397,13 +6381,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>144</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6422,16 +6406,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6493,30 +6477,30 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6539,26 +6523,26 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q44" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q44" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="R44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6602,7 +6586,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6617,24 +6601,24 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6657,19 +6641,19 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6698,7 +6682,7 @@
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6716,7 +6700,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6731,24 +6715,24 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6771,19 +6755,19 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6832,7 +6816,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6847,13 +6831,13 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6861,10 +6845,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6887,19 +6871,19 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -6948,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6966,7 +6950,7 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6977,10 +6961,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7003,19 +6987,19 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7064,7 +7048,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7073,19 +7057,19 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7093,10 +7077,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7119,19 +7103,19 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7180,7 +7164,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7189,19 +7173,19 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7209,10 +7193,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7235,17 +7219,17 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7294,7 +7278,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7309,13 +7293,13 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7323,10 +7307,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7349,19 +7333,19 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7410,7 +7394,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7428,7 +7412,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7439,10 +7423,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7465,13 +7449,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7522,7 +7506,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7540,7 +7524,7 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7551,10 +7535,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7583,7 +7567,7 @@
         <v>134</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>136</v>
@@ -7636,7 +7620,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7654,7 +7638,7 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7665,14 +7649,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7694,10 +7678,10 @@
         <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>136</v>
@@ -7752,7 +7736,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7781,10 +7765,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7807,17 +7791,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7842,13 +7826,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7866,7 +7850,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7884,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7895,10 +7879,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7921,17 +7905,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -7980,7 +7964,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7995,10 +7979,10 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8009,10 +7993,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8035,17 +8019,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8094,7 +8078,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8109,10 +8093,10 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8123,10 +8107,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8149,17 +8133,17 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8208,7 +8192,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8223,10 +8207,10 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8237,10 +8221,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8263,17 +8247,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8322,7 +8306,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8340,7 +8324,7 @@
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>

--- a/fhir/core/StructureDefinition-dk-core-organization.xlsx
+++ b/fhir/core/StructureDefinition-dk-core-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -651,7 +651,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -760,7 +760,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1137,7 +1137,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -1204,7 +1204,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1528,17 +1528,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.4609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.91796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.3828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.90234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.19921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1547,26 +1547,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.58203125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="86.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="181.4296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
